--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H2">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I2">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J2">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N2">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O2">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P2">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q2">
-        <v>38.97219537818243</v>
+        <v>63.19688948262045</v>
       </c>
       <c r="R2">
-        <v>350.7497584036419</v>
+        <v>568.7720053435841</v>
       </c>
       <c r="S2">
-        <v>0.004200048771915643</v>
+        <v>0.005383148253797171</v>
       </c>
       <c r="T2">
-        <v>0.004200048771915642</v>
+        <v>0.005383148253797171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H3">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I3">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J3">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>212.130093</v>
       </c>
       <c r="O3">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P3">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q3">
-        <v>140.5461095868503</v>
+        <v>160.4482256221413</v>
       </c>
       <c r="R3">
-        <v>1264.914986281653</v>
+        <v>1444.034030599272</v>
       </c>
       <c r="S3">
-        <v>0.01514670932031292</v>
+        <v>0.01366707432365342</v>
       </c>
       <c r="T3">
-        <v>0.01514670932031292</v>
+        <v>0.01366707432365342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H4">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I4">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J4">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N4">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O4">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P4">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q4">
-        <v>19.05961301550177</v>
+        <v>34.07955123768533</v>
       </c>
       <c r="R4">
-        <v>171.536517139516</v>
+        <v>306.715961139168</v>
       </c>
       <c r="S4">
-        <v>0.002054061965515041</v>
+        <v>0.002902916239030853</v>
       </c>
       <c r="T4">
-        <v>0.002054061965515041</v>
+        <v>0.002902916239030853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H5">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I5">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J5">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N5">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O5">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P5">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q5">
-        <v>59.54011865988578</v>
+        <v>81.69679550384177</v>
       </c>
       <c r="R5">
-        <v>535.8610679389719</v>
+        <v>735.271159534576</v>
       </c>
       <c r="S5">
-        <v>0.006416661926034601</v>
+        <v>0.006958981140650513</v>
       </c>
       <c r="T5">
-        <v>0.0064166619260346</v>
+        <v>0.006958981140650513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>170.440021</v>
       </c>
       <c r="I6">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J6">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N6">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O6">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P6">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q6">
-        <v>1113.954352015316</v>
+        <v>1582.312053428569</v>
       </c>
       <c r="R6">
-        <v>10025.58916813784</v>
+        <v>14240.80848085712</v>
       </c>
       <c r="S6">
-        <v>0.1200512971555931</v>
+        <v>0.1347822723097578</v>
       </c>
       <c r="T6">
-        <v>0.1200512971555931</v>
+        <v>0.1347822723097578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>170.440021</v>
       </c>
       <c r="I7">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J7">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>212.130093</v>
       </c>
       <c r="O7">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P7">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q7">
         <v>4017.273056183551</v>
@@ -883,10 +883,10 @@
         <v>36155.45750565195</v>
       </c>
       <c r="S7">
-        <v>0.4329430919234098</v>
+        <v>0.3421936841269392</v>
       </c>
       <c r="T7">
-        <v>0.4329430919234096</v>
+        <v>0.3421936841269392</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>170.440021</v>
       </c>
       <c r="I8">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J8">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N8">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O8">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P8">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q8">
-        <v>544.7868322612351</v>
+        <v>853.2775131860813</v>
       </c>
       <c r="R8">
-        <v>4903.081490351115</v>
+        <v>7679.497618674732</v>
       </c>
       <c r="S8">
-        <v>0.0587118904539713</v>
+        <v>0.07268268094706211</v>
       </c>
       <c r="T8">
-        <v>0.05871189045397129</v>
+        <v>0.07268268094706211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>170.440021</v>
       </c>
       <c r="I9">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J9">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N9">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O9">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P9">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q9">
-        <v>1701.853684584019</v>
+        <v>2045.509285512664</v>
       </c>
       <c r="R9">
-        <v>15316.68316125617</v>
+        <v>18409.58356961397</v>
       </c>
       <c r="S9">
-        <v>0.1834094386665928</v>
+        <v>0.1742376852497079</v>
       </c>
       <c r="T9">
-        <v>0.1834094386665927</v>
+        <v>0.1742376852497079</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H10">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I10">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J10">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N10">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O10">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P10">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q10">
-        <v>233.3621730289691</v>
+        <v>517.2659068963488</v>
       </c>
       <c r="R10">
-        <v>2100.259557260722</v>
+        <v>4655.39316206714</v>
       </c>
       <c r="S10">
-        <v>0.02514953285876702</v>
+        <v>0.044061014493817</v>
       </c>
       <c r="T10">
-        <v>0.02514953285876701</v>
+        <v>0.044061014493817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H11">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I11">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J11">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>212.130093</v>
       </c>
       <c r="O11">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P11">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q11">
-        <v>841.5780847264303</v>
+        <v>1313.267118299721</v>
       </c>
       <c r="R11">
-        <v>7574.202762537872</v>
+        <v>11819.40406469749</v>
       </c>
       <c r="S11">
-        <v>0.09069720006600282</v>
+        <v>0.1118648663331532</v>
       </c>
       <c r="T11">
-        <v>0.09069720006600278</v>
+        <v>0.1118648663331532</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H12">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I12">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J12">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N12">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O12">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P12">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q12">
-        <v>114.1273327619284</v>
+        <v>278.9407852490866</v>
       </c>
       <c r="R12">
-        <v>1027.145994857356</v>
+        <v>2510.46706724178</v>
       </c>
       <c r="S12">
-        <v>0.0122995473864706</v>
+        <v>0.02376034031610649</v>
       </c>
       <c r="T12">
-        <v>0.0122995473864706</v>
+        <v>0.02376034031610649</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H13">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I13">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J13">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N13">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O13">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P13">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q13">
-        <v>356.5211386744725</v>
+        <v>668.6874522272454</v>
       </c>
       <c r="R13">
-        <v>3208.690248070252</v>
+        <v>6018.187070045209</v>
       </c>
       <c r="S13">
-        <v>0.03842242286124759</v>
+        <v>0.05695919087573292</v>
       </c>
       <c r="T13">
-        <v>0.03842242286124758</v>
+        <v>0.05695919087573292</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H14">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I14">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J14">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.60726733333333</v>
+        <v>27.85106533333333</v>
       </c>
       <c r="N14">
-        <v>58.82180199999999</v>
+        <v>83.553196</v>
       </c>
       <c r="O14">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="P14">
-        <v>0.1509859438163708</v>
+        <v>0.1861900221007236</v>
       </c>
       <c r="Q14">
-        <v>14.70779683632422</v>
+        <v>23.05204826574667</v>
       </c>
       <c r="R14">
-        <v>132.370171526918</v>
+        <v>207.46843439172</v>
       </c>
       <c r="S14">
-        <v>0.001585065030095035</v>
+        <v>0.001963587043351691</v>
       </c>
       <c r="T14">
-        <v>0.001585065030095035</v>
+        <v>0.001963587043351691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H15">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I15">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J15">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>212.130093</v>
       </c>
       <c r="O15">
-        <v>0.5445032490412232</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="P15">
-        <v>0.544503249041223</v>
+        <v>0.4727109026912454</v>
       </c>
       <c r="Q15">
-        <v>53.04098488370966</v>
+        <v>58.52598555839</v>
       </c>
       <c r="R15">
-        <v>477.3688639533869</v>
+        <v>526.7338700255099</v>
       </c>
       <c r="S15">
-        <v>0.005716247731497713</v>
+        <v>0.004985277907499664</v>
       </c>
       <c r="T15">
-        <v>0.00571624773149771</v>
+        <v>0.004985277907499663</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H16">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I16">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J16">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.589065333333332</v>
+        <v>15.018964</v>
       </c>
       <c r="N16">
-        <v>28.767196</v>
+        <v>45.056892</v>
       </c>
       <c r="O16">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="P16">
-        <v>0.0738406864687778</v>
+        <v>0.1004048213460311</v>
       </c>
       <c r="Q16">
-        <v>7.192946491484888</v>
+        <v>12.43104631316</v>
       </c>
       <c r="R16">
-        <v>64.73651842336399</v>
+        <v>111.87941681844</v>
       </c>
       <c r="S16">
-        <v>0.0007751866628208664</v>
+        <v>0.001058883843831617</v>
       </c>
       <c r="T16">
-        <v>0.0007751866628208663</v>
+        <v>0.001058883843831617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H17">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I17">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J17">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.95517733333334</v>
+        <v>36.00403133333333</v>
       </c>
       <c r="N17">
-        <v>89.865532</v>
+        <v>108.012094</v>
       </c>
       <c r="O17">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="P17">
-        <v>0.2306701206736284</v>
+        <v>0.2406942538619999</v>
       </c>
       <c r="Q17">
-        <v>22.46996763622089</v>
+        <v>29.80017669428666</v>
       </c>
       <c r="R17">
-        <v>202.229708725988</v>
+        <v>268.2015902485799</v>
       </c>
       <c r="S17">
-        <v>0.002421597219753423</v>
+        <v>0.00253839659590861</v>
       </c>
       <c r="T17">
-        <v>0.002421597219753423</v>
+        <v>0.00253839659590861</v>
       </c>
     </row>
   </sheetData>
